--- a/LCOH modelling/data/facility_temps.xlsx
+++ b/LCOH modelling/data/facility_temps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Desktop\LCOH modelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Desktop\LCOH modelling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8DDD4-CE26-4839-B424-94AB00645B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6950B24-EC85-4B2C-808D-B20ADF2990E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="1140" windowWidth="21600" windowHeight="11100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAICS" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>facility_id</t>
+    <t>primary_naics</t>
   </si>
   <si>
-    <t>primary_naics</t>
+    <t>facility_id</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -401,7 +401,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/LCOH modelling/data/facility_temps.xlsx
+++ b/LCOH modelling/data/facility_temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Desktop\LCOH modelling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6950B24-EC85-4B2C-808D-B20ADF2990E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A462C4A-06DF-4A19-8AF2-7BB590B753D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAICS" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,6 +384,38 @@
         <v>137.80000000000001</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>311942</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>311221</v>
+      </c>
+      <c r="B5">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>311611</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>312140</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -391,10 +423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ACB9F8-05CE-49E5-9319-563F81B34C80}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,6 +463,70 @@
         <v>165</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1003320</v>
+      </c>
+      <c r="B5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1001892</v>
+      </c>
+      <c r="B6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1007871</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1006367</v>
+      </c>
+      <c r="B8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1005838</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1004553</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000409</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1005073</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LCOH modelling/data/facility_temps.xlsx
+++ b/LCOH modelling/data/facility_temps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Desktop\LCOH modelling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\GitHub\Industrial-decarb\LCOH modelling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A462C4A-06DF-4A19-8AF2-7BB590B753D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A298EA5F-1F63-49E9-BEE1-8B849474DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAICS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>temperature</t>
   </si>
@@ -36,18 +36,26 @@
   <si>
     <t>facility_id</t>
   </si>
+  <si>
+    <t>pulp_production</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,12 +74,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,107 +449,2178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ACB9F8-05CE-49E5-9319-563F81B34C80}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1000041</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000166</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1000183</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000196</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000228</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1000229</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1000230</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1000240</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1000248</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000256</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1000258</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1000262</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1000273</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1000305</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000311</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1000319</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1000324</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1000345</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1000348</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1000353</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1000409</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1000426</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1000427</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1000434</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1000523</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1000589</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1000590</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1000593</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1000602</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1000624</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1000961</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1001069</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1001244</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1001733</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1001762</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1001807</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1001825</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1001889</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1001892</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1001906</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1001913</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1001995</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1002011</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1002013</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1002098</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1002111</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1002113</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1002149</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1002152</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1002179</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1002187</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1002272</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1002305</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1002309</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1002339</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1002438</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1002708</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1002733</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1002823</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1002834</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1002846</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1002861</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1002862</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1002871</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1002893</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1002963</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1003048</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1003280</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1003320</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1003327</v>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1003470</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1003488</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1003501</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1003607</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1003633</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1003884</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1003943</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1003953</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1004017</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1004024</v>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1004045</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1004055</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1004083</v>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1004199</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1004222</v>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1004277</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1004396</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1004500</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1004536</v>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1004553</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1004554</v>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1004626</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1004705</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1004874</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1004886</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1004901</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1004961</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1004982</v>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1005012</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1005037</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1005038</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1005050</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1005073</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1005293</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1005422</v>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1005579</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1005653</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1005706</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1005732</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1005738</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1005768</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1005838</v>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1005909</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1005938</v>
+      </c>
+      <c r="B115" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1005948</v>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1005959</v>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1005970</v>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1005979</v>
+      </c>
+      <c r="B119" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1005991</v>
+      </c>
+      <c r="B120" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1005994</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1005998</v>
+      </c>
+      <c r="B122" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1006048</v>
+      </c>
+      <c r="B123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1006052</v>
+      </c>
+      <c r="B124" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1006061</v>
+      </c>
+      <c r="B125" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1006065</v>
+      </c>
+      <c r="B126" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1006080</v>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1006193</v>
+      </c>
+      <c r="B128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1006209</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1006256</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1006262</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1006360</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1006366</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1006367</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1006377</v>
+      </c>
+      <c r="B135" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1006423</v>
+      </c>
+      <c r="B136" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1006454</v>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1006466</v>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1006520</v>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1006558</v>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1006608</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1006626</v>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1006668</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1006703</v>
+      </c>
+      <c r="B144" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1006731</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1006760</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1006776</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1006788</v>
+      </c>
+      <c r="B148" t="b">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1006803</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1006885</v>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1006892</v>
+      </c>
+      <c r="B151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1006962</v>
+      </c>
+      <c r="B152" t="b">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1006975</v>
+      </c>
+      <c r="B153" t="b">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>1006988</v>
       </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1001995</v>
-      </c>
-      <c r="B3">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B154" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1006994</v>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1007069</v>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1007135</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1007176</v>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1007196</v>
+      </c>
+      <c r="B159" t="b">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1007214</v>
+      </c>
+      <c r="B160" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1007226</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1007273</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1007453</v>
+      </c>
+      <c r="B163" t="b">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1007603</v>
+      </c>
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1007627</v>
+      </c>
+      <c r="B165" t="b">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1007804</v>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1007846</v>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1007867</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1007871</v>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1007912</v>
+      </c>
+      <c r="B170" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1007917</v>
+      </c>
+      <c r="B171" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1007964</v>
+      </c>
+      <c r="B172" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>1007994</v>
       </c>
-      <c r="B4">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1003320</v>
-      </c>
-      <c r="B5">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1001892</v>
-      </c>
-      <c r="B6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1007871</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1006367</v>
-      </c>
-      <c r="B8">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1005838</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1004553</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1000409</v>
-      </c>
-      <c r="B11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1005073</v>
-      </c>
-      <c r="B12">
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1008025</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1008042</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1008553</v>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1008708</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1008767</v>
+      </c>
+      <c r="B178" t="b">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1008999</v>
+      </c>
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1010363</v>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1010743</v>
+      </c>
+      <c r="B181" t="b">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1010759</v>
+      </c>
+      <c r="B182" t="b">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1010974</v>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1011051</v>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1011175</v>
+      </c>
+      <c r="B185" t="b">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1011192</v>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1011729</v>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1011979</v>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1012019</v>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1012181</v>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1013279</v>
+      </c>
+      <c r="B191" t="b">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1013376</v>
+      </c>
+      <c r="B192" t="b">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1013821</v>
+      </c>
+      <c r="B193" t="b">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1013880</v>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1013902</v>
+      </c>
+      <c r="B195" t="b">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1014626</v>
+      </c>
+      <c r="B196" t="b">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1014845</v>
+      </c>
+      <c r="B197" t="b">
+        <v>0</v>
+      </c>
+      <c r="C197">
         <v>80</v>
       </c>
     </row>
